--- a/data/initial_state_1.xlsx
+++ b/data/initial_state_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97C822B-7F8B-AD4F-B0F5-BC4D420FDCA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B64E13-329F-AD41-A2E2-05003533EB21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="460" windowWidth="23620" windowHeight="15460" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Country</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>Erewhon</t>
+  </si>
+  <si>
+    <t>R23'</t>
+  </si>
+  <si>
+    <t>R22'</t>
+  </si>
+  <si>
+    <t>R21'</t>
   </si>
 </sst>
 </file>
@@ -415,15 +424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60B5BFC-574A-244D-8E0C-16B41A28F5E3}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,8 +454,17 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" spans="1:10" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -468,8 +486,17 @@
       <c r="G2" s="1">
         <v>110</v>
       </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
+    <row r="3" spans="1:10" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -491,8 +518,17 @@
       <c r="G3" s="1">
         <v>75</v>
       </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1">
+    <row r="4" spans="1:10" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -514,8 +550,17 @@
       <c r="G4" s="1">
         <v>400</v>
       </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1">
+    <row r="5" spans="1:10" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -537,8 +582,17 @@
       <c r="G5" s="1">
         <v>82</v>
       </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1">
+    <row r="6" spans="1:10" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -560,9 +614,18 @@
       <c r="G6" s="1">
         <v>71</v>
       </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1"/>
-    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:10" s="1" customFormat="1"/>
+    <row r="8" spans="1:10" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/initial_state_1.xlsx
+++ b/data/initial_state_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B64E13-329F-AD41-A2E2-05003533EB21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A8AFD2-6E7B-3E42-A31D-18D733E827CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="460" windowWidth="23620" windowHeight="15460" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Country</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>R21'</t>
+  </si>
+  <si>
+    <t>Self?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -424,208 +433,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60B5BFC-574A-244D-8E0C-16B41A28F5E3}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1">
+    <row r="2" spans="1:11" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1">
         <v>100</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>700</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>2000</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
         <v>110</v>
       </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
       </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1">
+    <row r="3" spans="1:11" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1">
         <v>50</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>300</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>1200</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
         <v>75</v>
       </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
       </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1">
+    <row r="4" spans="1:11" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
         <v>25</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>100</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>300</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
         <v>400</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
       </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1">
+    <row r="5" spans="1:11" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1">
         <v>30</v>
-      </c>
-      <c r="C5" s="1">
-        <v>200</v>
       </c>
       <c r="D5" s="1">
         <v>200</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
         <v>82</v>
       </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
       </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1">
+    <row r="6" spans="1:11" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
         <v>70</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>500</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>1700</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
         <v>71</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
       </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1"/>
-    <row r="8" spans="1:10" s="1" customFormat="1"/>
+    <row r="7" spans="1:11" s="1" customFormat="1"/>
+    <row r="8" spans="1:11" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/initial_state_1.xlsx
+++ b/data/initial_state_1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A8AFD2-6E7B-3E42-A31D-18D733E827CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B9A712-613C-1E4A-8DDB-3A5DFA0E469A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="460" windowWidth="23620" windowHeight="15460" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
+    <workbookView xWindow="3220" yWindow="1060" windowWidth="23620" windowHeight="15460" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -436,7 +437,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -499,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -519,13 +520,13 @@
         <v>17</v>
       </c>
       <c r="C3" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E3" s="1">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -534,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -554,13 +555,13 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E4" s="1">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -569,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -589,13 +590,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E5" s="1">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -604,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -624,13 +625,13 @@
         <v>17</v>
       </c>
       <c r="C6" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E6" s="1">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -639,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -656,4 +657,74 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D80CA06-234A-8A42-954B-60C5F9F93F44}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1">
+        <v>700</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1">
+        <v>300</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1">
+        <v>200</v>
+      </c>
+      <c r="C4" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1">
+        <v>500</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/initial_state_1.xlsx
+++ b/data/initial_state_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B9A712-613C-1E4A-8DDB-3A5DFA0E469A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE5862A-831C-A64B-9484-2D14DD1D7BD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3220" yWindow="1060" windowWidth="23620" windowHeight="15460" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -520,13 +520,13 @@
         <v>17</v>
       </c>
       <c r="C3" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E3" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -590,13 +590,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E5" s="1">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>

--- a/data/initial_state_1.xlsx
+++ b/data/initial_state_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE5862A-831C-A64B-9484-2D14DD1D7BD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20250837-7544-A74B-8F78-00DA0D473B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="1060" windowWidth="23620" windowHeight="15460" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
+    <workbookView xWindow="2520" yWindow="2040" windowWidth="23620" windowHeight="15460" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
@@ -437,7 +437,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -520,13 +520,13 @@
         <v>17</v>
       </c>
       <c r="C3" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E3" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -590,13 +590,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="1">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="E5" s="1">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>

--- a/data/initial_state_1.xlsx
+++ b/data/initial_state_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20250837-7544-A74B-8F78-00DA0D473B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6520AA-D538-3942-92AA-BE82DCE00CA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="2040" windowWidth="23620" windowHeight="15460" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
+    <workbookView xWindow="2700" yWindow="1900" windowWidth="23620" windowHeight="15460" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Country</t>
   </si>
@@ -80,6 +80,42 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>R24'</t>
+  </si>
+  <si>
+    <t>R25'</t>
+  </si>
+  <si>
+    <t>R26'</t>
+  </si>
+  <si>
+    <t>R27'</t>
   </si>
 </sst>
 </file>
@@ -434,15 +470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60B5BFC-574A-244D-8E0C-16B41A28F5E3}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:23" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,25 +495,61 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1">
+      <c r="T1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -488,22 +560,22 @@
         <v>100</v>
       </c>
       <c r="D2" s="1">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E2" s="1">
         <v>2000</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -511,8 +583,44 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1">
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -520,25 +628,25 @@
         <v>17</v>
       </c>
       <c r="C3" s="1">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1">
         <v>100</v>
       </c>
-      <c r="D3" s="1">
-        <v>700</v>
-      </c>
       <c r="E3" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -546,8 +654,44 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1">
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -555,25 +699,25 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1">
+        <v>200</v>
+      </c>
+      <c r="E4" s="1">
+        <v>500</v>
+      </c>
+      <c r="F4" s="1">
+        <v>300</v>
+      </c>
+      <c r="G4" s="1">
         <v>100</v>
       </c>
-      <c r="D4" s="1">
-        <v>700</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -581,8 +725,44 @@
       <c r="K4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1">
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -590,25 +770,25 @@
         <v>17</v>
       </c>
       <c r="C5" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E5" s="1">
-        <v>2000</v>
+        <v>675</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -616,8 +796,44 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1">
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -625,25 +841,25 @@
         <v>17</v>
       </c>
       <c r="C6" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E6" s="1">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -651,9 +867,45 @@
       <c r="K6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1"/>
-    <row r="8" spans="1:11" s="1" customFormat="1"/>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="1" customFormat="1"/>
+    <row r="8" spans="1:23" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/initial_state_1.xlsx
+++ b/data/initial_state_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6520AA-D538-3942-92AA-BE82DCE00CA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD7D929-0087-5B46-915D-134CD6ECA1CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1900" windowWidth="23620" windowHeight="15460" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
+    <workbookView xWindow="1720" yWindow="1340" windowWidth="23620" windowHeight="15460" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
@@ -473,7 +473,7 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -557,10 +557,10 @@
         <v>16</v>
       </c>
       <c r="C2" s="1">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="D2" s="1">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E2" s="1">
         <v>2000</v>
@@ -628,13 +628,13 @@
         <v>17</v>
       </c>
       <c r="C3" s="1">
-        <v>50</v>
+        <v>4000</v>
       </c>
       <c r="D3" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E3" s="1">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F3" s="1">
         <v>200</v>
@@ -699,13 +699,13 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>75</v>
+        <v>7000</v>
       </c>
       <c r="D4" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F4" s="1">
         <v>300</v>
@@ -770,13 +770,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="1">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="D5" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E5" s="1">
-        <v>675</v>
+        <v>200</v>
       </c>
       <c r="F5" s="1">
         <v>400</v>
@@ -841,13 +841,13 @@
         <v>17</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>5500</v>
       </c>
       <c r="D6" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E6" s="1">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="F6" s="1">
         <v>500</v>
@@ -913,70 +913,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D80CA06-234A-8A42-954B-60C5F9F93F44}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1">
-        <v>100</v>
-      </c>
-      <c r="B1" s="1">
-        <v>700</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>50</v>
-      </c>
-      <c r="B2" s="1">
-        <v>300</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1">
-        <v>200</v>
-      </c>
-      <c r="C4" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>70</v>
-      </c>
-      <c r="B5" s="1">
-        <v>500</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1700</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/initial_state_1.xlsx
+++ b/data/initial_state_1.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD7D929-0087-5B46-915D-134CD6ECA1CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970461AA-874B-C84F-98E3-0EF806876E16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="1340" windowWidth="23620" windowHeight="15460" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
+    <workbookView xWindow="2140" yWindow="1820" windowWidth="23620" windowHeight="15460" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -151,9 +150,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -473,7 +475,7 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -556,17 +558,17 @@
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1">
-        <v>5000</v>
+      <c r="C2" s="2">
+        <v>40</v>
       </c>
       <c r="D2" s="1">
-        <v>700</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="F2" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G2" s="1">
         <v>200</v>
@@ -628,7 +630,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="1">
-        <v>4000</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1">
         <v>300</v>
@@ -646,7 +648,7 @@
         <v>100</v>
       </c>
       <c r="I3" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -699,7 +701,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>7000</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1">
         <v>100</v>
@@ -770,13 +772,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="1">
-        <v>3000</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1">
         <v>200</v>
       </c>
       <c r="E5" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1">
         <v>400</v>
@@ -841,7 +843,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="1">
-        <v>5500</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1">
         <v>500</v>
@@ -909,18 +911,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D80CA06-234A-8A42-954B-60C5F9F93F44}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>